--- a/Applifter/Test_report.xlsx
+++ b/Applifter/Test_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RustemSalikzhanov\Desktop\Applifter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GIT\Click\Applifter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0BE5AD-22CD-4CA5-8EC2-9E893DB38388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62688119-C083-4105-8122-FC60294B9DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
   <si>
     <t>Project Name</t>
   </si>
@@ -575,9 +575,6 @@
     <t>Bug2</t>
   </si>
   <si>
-    <t>Fail      Bug1</t>
-  </si>
-  <si>
     <t>Wrong link</t>
   </si>
   <si>
@@ -597,9 +594,6 @@
     <t>Bug3</t>
   </si>
   <si>
-    <t>Fail   Bug2</t>
-  </si>
-  <si>
     <t>User able entering more than 10 characters</t>
   </si>
   <si>
@@ -618,9 +612,6 @@
     <t>screenshots\characters.png</t>
   </si>
   <si>
-    <t>Fail   Bug3</t>
-  </si>
-  <si>
     <t>User can entering negative
  value to "Team Name" field</t>
   </si>
@@ -667,9 +658,6 @@
     </r>
   </si>
   <si>
-    <t>Fail   Bag4</t>
-  </si>
-  <si>
     <t>Bug5</t>
   </si>
   <si>
@@ -716,9 +704,6 @@
     <t>screenshots\Symbols.png</t>
   </si>
   <si>
-    <t>Fail     Bug5</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">User should not be able to </t>
     </r>
@@ -756,9 +741,6 @@
       </rPr>
       <t>symbols</t>
     </r>
-  </si>
-  <si>
-    <t>Fail    Bug6</t>
   </si>
   <si>
     <t>Bug6</t>
@@ -805,9 +787,6 @@
   </si>
   <si>
     <t>screenshots\Name with symbols.png</t>
-  </si>
-  <si>
-    <t>Fail    Bug7</t>
   </si>
   <si>
     <t>Bug7</t>
@@ -856,12 +835,6 @@
     <t>screenshots\another team.png</t>
   </si>
   <si>
-    <t>Fail    Bug3</t>
-  </si>
-  <si>
-    <t>Fail    Bug2</t>
-  </si>
-  <si>
     <t>Bug8</t>
   </si>
   <si>
@@ -1057,13 +1030,16 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>Bag4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,6 +1129,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1373,7 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1502,6 +1486,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1787,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1945,17 +1932,17 @@
       <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>94</v>
+      <c r="C11" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1965,8 +1952,8 @@
       <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>101</v>
+      <c r="C12" s="48" t="s">
+        <v>93</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="15"/>
@@ -1979,8 +1966,8 @@
       <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>107</v>
+      <c r="C13" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="28" t="s">
@@ -2000,8 +1987,8 @@
       <c r="B14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>114</v>
+      <c r="C14" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>63</v>
@@ -2040,8 +2027,8 @@
       <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>121</v>
+      <c r="C16" s="48" t="s">
+        <v>111</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>69</v>
@@ -2049,8 +2036,8 @@
       <c r="F16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>147</v>
+      <c r="G16" s="48" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2058,10 +2045,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>118</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>70</v>
@@ -2080,8 +2067,8 @@
       <c r="B18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>130</v>
+      <c r="C18" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>75</v>
@@ -2144,8 +2131,8 @@
       <c r="B23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>138</v>
+      <c r="C23" s="48" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2155,8 +2142,8 @@
       <c r="B24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>137</v>
+      <c r="C24" s="48" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2166,7 +2153,7 @@
         <v>87</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2220,19 +2207,19 @@
         <v>93</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="D30" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="F30" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>99</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>89</v>
@@ -2240,22 +2227,22 @@
     </row>
     <row r="31" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>106</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>89</v>
@@ -2263,22 +2250,22 @@
     </row>
     <row r="32" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>89</v>
@@ -2286,22 +2273,22 @@
     </row>
     <row r="33" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="F33" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>120</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>89</v>
@@ -2309,22 +2296,22 @@
     </row>
     <row r="34" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>89</v>
@@ -2332,22 +2319,22 @@
     </row>
     <row r="35" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>89</v>
@@ -2355,22 +2342,22 @@
     </row>
     <row r="36" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>89</v>
@@ -2378,45 +2365,45 @@
     </row>
     <row r="37" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>154</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>89</v>
@@ -2442,6 +2429,16 @@
     <hyperlink ref="G11" r:id="rId15" xr:uid="{E07C89EC-26CA-4011-9706-3BE8B4510F2F}"/>
     <hyperlink ref="F37" r:id="rId16" xr:uid="{42D2AEC0-CC39-4DC3-87F5-4DFA07330204}"/>
     <hyperlink ref="F38" r:id="rId17" xr:uid="{AE5B27EC-7F3E-4BEF-9804-A1884DBDA773}"/>
+    <hyperlink ref="C11" location="List1!A29" display="Bug1" xr:uid="{9764748C-D3C5-49EC-9403-C82CF2C0870B}"/>
+    <hyperlink ref="C12" location="List1!A30" display="Bug2" xr:uid="{8C40E568-4CE4-4E83-97FD-5B1CEC0F83C2}"/>
+    <hyperlink ref="C13" location="List1!A31" display="Bug3" xr:uid="{B24B3DE4-8260-4846-BA5B-B3979C2BF7F1}"/>
+    <hyperlink ref="C14" location="List1!A32" display="Bag4" xr:uid="{873307B1-8D71-4755-8737-3E6CD072D461}"/>
+    <hyperlink ref="C16" location="List1!A33" display="Bug5" xr:uid="{1539495E-A34C-496E-836B-CC1B06356BDF}"/>
+    <hyperlink ref="C17" location="List1!A34" display="Bug6" xr:uid="{459B2E2F-ABD0-4F79-BF98-415AB1A49550}"/>
+    <hyperlink ref="C23" location="List1!A30" display="Bug2" xr:uid="{92F4DA48-18BB-4711-8AD0-47221B30F085}"/>
+    <hyperlink ref="C24" location="List1!A31" display="Bug3" xr:uid="{1664D512-C1DF-4934-A7EC-1130B1FFAFF8}"/>
+    <hyperlink ref="C18" location="List1!A35" display="Bug7" xr:uid="{7C72E499-4EE1-40EE-A201-EE4E48D8B413}"/>
+    <hyperlink ref="G16" location="List1!A36" display="Fail; Example: &quot;Input name&quot;  ;     Bug8" xr:uid="{316975B6-C8F5-44A8-976E-3ED7B7895D4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
